--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_origin_kernel.xlsx
@@ -11,6 +11,7 @@
     <sheet name="origin_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="origin_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1520,16 +1521,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.0893519840137</v>
+        <v>79.50665663197779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5425461222728093</v>
+        <v>0.5333271201389531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.790893519840137</v>
+        <v>0.7950665663197778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.786148125449382</v>
+        <v>0.7903074411673428</v>
       </c>
     </row>
     <row r="3">
@@ -1539,16 +1540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.42295348575679</v>
+        <v>73.44310936945821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6458521478188535</v>
+        <v>0.6646961336955428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7342295348575679</v>
+        <v>0.7344310936945821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7285041225690169</v>
+        <v>0.7314071069727544</v>
       </c>
     </row>
     <row r="4">
@@ -1558,16 +1559,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.00879765395895</v>
+        <v>82.31420687030165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6568118446700585</v>
+        <v>0.4358074686101948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7700879765395895</v>
+        <v>0.8231420687030164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7660827746190643</v>
+        <v>0.8219791241260456</v>
       </c>
     </row>
     <row r="5">
@@ -1577,16 +1578,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.66454727117016</v>
+        <v>72.36957067102657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7847815323621035</v>
+        <v>0.7016942373166482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7166454727117016</v>
+        <v>0.7236957067102656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7148460703280124</v>
+        <v>0.7173996755537473</v>
       </c>
     </row>
     <row r="6">
@@ -1596,16 +1597,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.67873424510592</v>
+        <v>58.64955579200512</v>
       </c>
       <c r="C6" t="n">
-        <v>1.029156929192444</v>
+        <v>1.280690420993293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6167873424510593</v>
+        <v>0.5864955579200511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.594735848590083</v>
+        <v>0.5557178181401931</v>
       </c>
     </row>
     <row r="7">
@@ -1615,16 +1616,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.95965363022171</v>
+        <v>72.68030000259517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9651941909144321</v>
+        <v>0.6469142285486063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6595965363022172</v>
+        <v>0.7268030000259518</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6470261762075202</v>
+        <v>0.7252565514635197</v>
       </c>
     </row>
     <row r="8">
@@ -1634,16 +1635,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.65675308609937</v>
+        <v>68.93087310443862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9227262175952395</v>
+        <v>0.7275568585842848</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7065675308609937</v>
+        <v>0.6893087310443862</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6778221194389349</v>
+        <v>0.6820757137409397</v>
       </c>
     </row>
     <row r="9">
@@ -1653,16 +1654,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.0233393022431</v>
+        <v>70.5520809003538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8193182015093043</v>
+        <v>0.7175442691892385</v>
       </c>
       <c r="D9" t="n">
-        <v>0.680233393022431</v>
+        <v>0.7055208090035381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6772817523014931</v>
+        <v>0.6995375041555187</v>
       </c>
     </row>
     <row r="10">
@@ -1672,16 +1673,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.559217640291</v>
+        <v>73.81145165615621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6676774259656668</v>
+        <v>0.6566900492412969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7555921764029101</v>
+        <v>0.738114516561562</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7248634228042914</v>
+        <v>0.7362207822044201</v>
       </c>
     </row>
     <row r="11">
@@ -1691,16 +1692,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.00674746321334</v>
+        <v>81.15407572729868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5220176359949014</v>
+        <v>0.6418863488574668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8000674746321336</v>
+        <v>0.8115407572729868</v>
       </c>
       <c r="E11" t="n">
-        <v>0.79196933638056</v>
+        <v>0.7925561423119953</v>
       </c>
     </row>
     <row r="12">
@@ -1710,16 +1711,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.95435081618353</v>
+        <v>70.95467953875034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7016963363392279</v>
+        <v>0.7635882285268356</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7295435081618353</v>
+        <v>0.7095467953875033</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7293027859665873</v>
+        <v>0.7051465546012798</v>
       </c>
     </row>
     <row r="13">
@@ -1729,16 +1730,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.4016384224777</v>
+        <v>71.71203903147952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8114615285148223</v>
+        <v>0.7192599521639447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6940163842247771</v>
+        <v>0.7171203903147951</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6710776129449456</v>
+        <v>0.7127385277194738</v>
       </c>
     </row>
     <row r="14">
@@ -1748,16 +1749,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.18234586804384</v>
+        <v>88.70206489675516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3151332583666469</v>
+        <v>0.3265499441574017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8918234586804384</v>
+        <v>0.8870206489675516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8892314953492461</v>
+        <v>0.8869256124814771</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1768,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.50909609944723</v>
+        <v>80.73919324561631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5666830298381076</v>
+        <v>0.6005308423186458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8150909609944723</v>
+        <v>0.8073919324561631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8001522207411342</v>
+        <v>0.7921925700078242</v>
       </c>
     </row>
     <row r="16">
@@ -1786,16 +1787,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.04820975959998</v>
+        <v>93.8379224733778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2005257192028997</v>
+        <v>0.1829779223112079</v>
       </c>
       <c r="D16" t="n">
-        <v>0.930482097596</v>
+        <v>0.938379224733778</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9297317407235252</v>
+        <v>0.9365161198141433</v>
       </c>
     </row>
     <row r="17">
@@ -1805,16 +1806,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.27771578185509</v>
+        <v>75.9571853274394</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6767721413705011</v>
+        <v>0.6399809349769041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.752777157818551</v>
+        <v>0.7595718532743939</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7419183736275865</v>
+        <v>0.752398482964045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>56.91831244214916</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.052581552664439</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5691831244214915</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5579779560613818</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.68854401854687</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8579656988382339</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5568854401854687</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5309257443091583</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.09636761563682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9287767251332602</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6009636761563681</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5949209848514403</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.36649105961123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9823302636543909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5636649105961125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5505296377720588</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>52.98938572132977</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.096537313361963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5298938572132977</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4815631483940514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.67381205719772</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.053287050127983</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5267381205719772</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5104617117269512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.80197060528205</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.483777122696241</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3780197060528205</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3211550119345374</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>39.82266282580299</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.387197323391835</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3982266282580299</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3520228749019572</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46.32998555350825</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.216220231354237</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4632998555350825</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.399850508476619</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.30595420375609</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9336647401253382</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5830595420375608</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5706459300869223</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.82111436950147</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.002210719386736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5082111436950146</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5041827378768325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.5018469017898</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.00558891048034</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5350184690178981</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5120475691215558</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>71.51385392607202</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7297491063674291</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7151385392607204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7014105545256332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.14061540324744</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.566907187208805</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7514061540324743</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7504514668818518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.18352234880925</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3847260986765226</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8518352234880926</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8486292489223967</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.87696260348273</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.97876800289785</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5687696260348273</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5457850057228898</v>
       </c>
     </row>
   </sheetData>
